--- a/Team-Data/2007-08/4-12-2007-08.xlsx
+++ b/Team-Data/2007-08/4-12-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" t="n">
         <v>37</v>
       </c>
       <c r="F2" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" t="n">
-        <v>0.463</v>
+        <v>0.468</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
@@ -696,67 +763,67 @@
         <v>13.1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.357</v>
+        <v>0.36</v>
       </c>
       <c r="O2" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="P2" t="n">
         <v>27.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.773</v>
+        <v>0.774</v>
       </c>
       <c r="R2" t="n">
         <v>12.3</v>
       </c>
       <c r="S2" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T2" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U2" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="V2" t="n">
         <v>14.9</v>
       </c>
       <c r="W2" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X2" t="n">
         <v>5.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z2" t="n">
         <v>20.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.5</v>
+        <v>-1.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI2" t="n">
         <v>21</v>
@@ -771,16 +838,16 @@
         <v>27</v>
       </c>
       <c r="AM2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO2" t="n">
         <v>5</v>
       </c>
       <c r="AP2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ2" t="n">
         <v>7</v>
@@ -789,7 +856,7 @@
         <v>7</v>
       </c>
       <c r="AS2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AT2" t="n">
         <v>11</v>
@@ -819,7 +886,7 @@
         <v>15</v>
       </c>
       <c r="BC2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-12-2007-08</t>
+          <t>2008-04-12</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E3" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" t="n">
         <v>16</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8</v>
+        <v>0.797</v>
       </c>
       <c r="H3" t="n">
         <v>48.2</v>
@@ -875,19 +942,19 @@
         <v>7.3</v>
       </c>
       <c r="M3" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="N3" t="n">
         <v>0.379</v>
       </c>
       <c r="O3" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="P3" t="n">
         <v>26.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.772</v>
+        <v>0.77</v>
       </c>
       <c r="R3" t="n">
         <v>10.1</v>
@@ -902,7 +969,7 @@
         <v>22.5</v>
       </c>
       <c r="V3" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W3" t="n">
         <v>8.5</v>
@@ -914,7 +981,7 @@
         <v>4.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AA3" t="n">
         <v>22.2</v>
@@ -926,7 +993,7 @@
         <v>10.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -950,13 +1017,13 @@
         <v>4</v>
       </c>
       <c r="AL3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM3" t="n">
         <v>12</v>
       </c>
       <c r="AN3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO3" t="n">
         <v>8</v>
@@ -968,13 +1035,13 @@
         <v>8</v>
       </c>
       <c r="AR3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS3" t="n">
         <v>10</v>
       </c>
       <c r="AT3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU3" t="n">
         <v>8</v>
@@ -986,10 +1053,10 @@
         <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ3" t="n">
         <v>25</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-12-2007-08</t>
+          <t>2008-04-12</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" t="n">
         <v>49</v>
       </c>
       <c r="G4" t="n">
-        <v>0.388</v>
+        <v>0.38</v>
       </c>
       <c r="H4" t="n">
         <v>48.4</v>
@@ -1048,7 +1115,7 @@
         <v>36</v>
       </c>
       <c r="J4" t="n">
-        <v>79.8</v>
+        <v>79.7</v>
       </c>
       <c r="K4" t="n">
         <v>0.451</v>
@@ -1057,28 +1124,28 @@
         <v>6.5</v>
       </c>
       <c r="M4" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="N4" t="n">
         <v>0.367</v>
       </c>
       <c r="O4" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="P4" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.711</v>
+        <v>0.71</v>
       </c>
       <c r="R4" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="S4" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="T4" t="n">
-        <v>40.6</v>
+        <v>40.3</v>
       </c>
       <c r="U4" t="n">
         <v>21.2</v>
@@ -1090,28 +1157,28 @@
         <v>7.5</v>
       </c>
       <c r="X4" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y4" t="n">
         <v>5.9</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>-4.5</v>
+        <v>-4.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
         <v>23</v>
@@ -1120,7 +1187,7 @@
         <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI4" t="n">
         <v>25</v>
@@ -1129,10 +1196,10 @@
         <v>22</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM4" t="n">
         <v>15</v>
@@ -1153,19 +1220,19 @@
         <v>20</v>
       </c>
       <c r="AS4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT4" t="n">
         <v>26</v>
       </c>
       <c r="AU4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AV4" t="n">
         <v>20</v>
       </c>
       <c r="AW4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX4" t="n">
         <v>14</v>
@@ -1177,10 +1244,10 @@
         <v>21</v>
       </c>
       <c r="BA4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB4" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BC4" t="n">
         <v>22</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-12-2007-08</t>
+          <t>2008-04-12</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-3.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="AE5" t="n">
         <v>22</v>
@@ -1332,7 +1399,7 @@
         <v>17</v>
       </c>
       <c r="AR5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS5" t="n">
         <v>18</v>
@@ -1362,7 +1429,7 @@
         <v>12</v>
       </c>
       <c r="BB5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC5" t="n">
         <v>21</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-12-2007-08</t>
+          <t>2008-04-12</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-0.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1490,7 +1557,7 @@
         <v>24</v>
       </c>
       <c r="AJ6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK6" t="n">
         <v>28</v>
@@ -1502,13 +1569,13 @@
         <v>13</v>
       </c>
       <c r="AN6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO6" t="n">
         <v>21</v>
       </c>
       <c r="AP6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ6" t="n">
         <v>28</v>
@@ -1535,7 +1602,7 @@
         <v>7</v>
       </c>
       <c r="AY6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ6" t="n">
         <v>16</v>
@@ -1547,7 +1614,7 @@
         <v>18</v>
       </c>
       <c r="BC6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-12-2007-08</t>
+          <t>2008-04-12</t>
         </is>
       </c>
     </row>
@@ -1576,31 +1643,31 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" t="n">
         <v>50</v>
       </c>
       <c r="F7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" t="n">
-        <v>0.625</v>
+        <v>0.633</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
       </c>
       <c r="I7" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J7" t="n">
         <v>79.2</v>
       </c>
       <c r="K7" t="n">
-        <v>0.466</v>
+        <v>0.465</v>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M7" t="n">
         <v>16.9</v>
@@ -1609,7 +1676,7 @@
         <v>0.352</v>
       </c>
       <c r="O7" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="P7" t="n">
         <v>25.4</v>
@@ -1621,13 +1688,13 @@
         <v>10.7</v>
       </c>
       <c r="S7" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="T7" t="n">
-        <v>42.9</v>
+        <v>43.1</v>
       </c>
       <c r="U7" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="V7" t="n">
         <v>12.8</v>
@@ -1648,13 +1715,13 @@
         <v>21.2</v>
       </c>
       <c r="AB7" t="n">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE7" t="n">
         <v>9</v>
@@ -1666,7 +1733,7 @@
         <v>9</v>
       </c>
       <c r="AH7" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AI7" t="n">
         <v>15</v>
@@ -1675,7 +1742,7 @@
         <v>24</v>
       </c>
       <c r="AK7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL7" t="n">
         <v>20</v>
@@ -1690,13 +1757,13 @@
         <v>7</v>
       </c>
       <c r="AP7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ7" t="n">
         <v>2</v>
       </c>
       <c r="AR7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS7" t="n">
         <v>7</v>
@@ -1705,7 +1772,7 @@
         <v>9</v>
       </c>
       <c r="AU7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV7" t="n">
         <v>5</v>
@@ -1714,7 +1781,7 @@
         <v>29</v>
       </c>
       <c r="AX7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY7" t="n">
         <v>7</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-12-2007-08</t>
+          <t>2008-04-12</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" t="n">
         <v>48</v>
       </c>
       <c r="F8" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6</v>
+        <v>0.608</v>
       </c>
       <c r="H8" t="n">
         <v>48.4</v>
@@ -1776,28 +1843,28 @@
         <v>40.3</v>
       </c>
       <c r="J8" t="n">
-        <v>85.7</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K8" t="n">
         <v>0.47</v>
       </c>
       <c r="L8" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M8" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="N8" t="n">
-        <v>0.356</v>
+        <v>0.357</v>
       </c>
       <c r="O8" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="P8" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.751</v>
+        <v>0.753</v>
       </c>
       <c r="R8" t="n">
         <v>11.3</v>
@@ -1806,16 +1873,16 @@
         <v>32.7</v>
       </c>
       <c r="T8" t="n">
-        <v>44</v>
+        <v>44.1</v>
       </c>
       <c r="U8" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="V8" t="n">
         <v>14.7</v>
       </c>
       <c r="W8" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X8" t="n">
         <v>6.6</v>
@@ -1824,19 +1891,19 @@
         <v>4.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AA8" t="n">
         <v>23.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>110.5</v>
+        <v>110.7</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE8" t="n">
         <v>11</v>
@@ -1848,7 +1915,7 @@
         <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI8" t="n">
         <v>3</v>
@@ -1860,7 +1927,7 @@
         <v>6</v>
       </c>
       <c r="AL8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM8" t="n">
         <v>11</v>
@@ -1875,16 +1942,16 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU8" t="n">
         <v>3</v>
@@ -1899,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="AY8" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AZ8" t="n">
         <v>17</v>
@@ -1908,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="BB8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC8" t="n">
         <v>11</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-12-2007-08</t>
+          <t>2008-04-12</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>7.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2042,7 +2109,7 @@
         <v>13</v>
       </c>
       <c r="AL9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM9" t="n">
         <v>22</v>
@@ -2054,7 +2121,7 @@
         <v>19</v>
       </c>
       <c r="AP9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ9" t="n">
         <v>14</v>
@@ -2066,7 +2133,7 @@
         <v>25</v>
       </c>
       <c r="AT9" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AU9" t="n">
         <v>9</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-12-2007-08</t>
+          <t>2008-04-12</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E10" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" t="n">
         <v>32</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6</v>
+        <v>0.595</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
@@ -2155,25 +2222,25 @@
         <v>0.348</v>
       </c>
       <c r="O10" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="P10" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.753</v>
+        <v>0.752</v>
       </c>
       <c r="R10" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="S10" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T10" t="n">
         <v>43.1</v>
       </c>
       <c r="U10" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="V10" t="n">
         <v>13.3</v>
@@ -2185,34 +2252,34 @@
         <v>4.6</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AA10" t="n">
         <v>21.3</v>
       </c>
       <c r="AB10" t="n">
-        <v>110.9</v>
+        <v>110.7</v>
       </c>
       <c r="AC10" t="n">
         <v>2.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2236,10 +2303,10 @@
         <v>13</v>
       </c>
       <c r="AP10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR10" t="n">
         <v>5</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-12-2007-08</t>
+          <t>2008-04-12</t>
         </is>
       </c>
     </row>
@@ -2382,13 +2449,13 @@
         <v>5</v>
       </c>
       <c r="AD11" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
         <v>5</v>
       </c>
       <c r="AF11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG11" t="n">
         <v>5</v>
@@ -2412,7 +2479,7 @@
         <v>7</v>
       </c>
       <c r="AN11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO11" t="n">
         <v>28</v>
@@ -2424,7 +2491,7 @@
         <v>26</v>
       </c>
       <c r="AR11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS11" t="n">
         <v>6</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-12-2007-08</t>
+          <t>2008-04-12</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12" t="n">
         <v>35</v>
       </c>
       <c r="F12" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G12" t="n">
-        <v>0.438</v>
+        <v>0.443</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
@@ -2513,10 +2580,10 @@
         <v>9.1</v>
       </c>
       <c r="M12" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="N12" t="n">
-        <v>0.37</v>
+        <v>0.371</v>
       </c>
       <c r="O12" t="n">
         <v>18.9</v>
@@ -2525,7 +2592,7 @@
         <v>24.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.768</v>
+        <v>0.769</v>
       </c>
       <c r="R12" t="n">
         <v>11.1</v>
@@ -2537,13 +2604,13 @@
         <v>43.2</v>
       </c>
       <c r="U12" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="V12" t="n">
         <v>15.1</v>
       </c>
       <c r="W12" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X12" t="n">
         <v>5</v>
@@ -2561,10 +2628,10 @@
         <v>103.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>-1.5</v>
+        <v>-1.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE12" t="n">
         <v>20</v>
@@ -2585,7 +2652,7 @@
         <v>4</v>
       </c>
       <c r="AK12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL12" t="n">
         <v>3</v>
@@ -2603,7 +2670,7 @@
         <v>18</v>
       </c>
       <c r="AQ12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AR12" t="n">
         <v>17</v>
@@ -2624,7 +2691,7 @@
         <v>11</v>
       </c>
       <c r="AX12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AY12" t="n">
         <v>22</v>
@@ -2639,7 +2706,7 @@
         <v>7</v>
       </c>
       <c r="BC12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-12-2007-08</t>
+          <t>2008-04-12</t>
         </is>
       </c>
     </row>
@@ -2668,58 +2735,58 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E13" t="n">
         <v>23</v>
       </c>
       <c r="F13" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G13" t="n">
-        <v>0.288</v>
+        <v>0.291</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
       </c>
       <c r="I13" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="J13" t="n">
-        <v>78.7</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K13" t="n">
         <v>0.438</v>
       </c>
       <c r="L13" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="M13" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="N13" t="n">
         <v>0.323</v>
       </c>
       <c r="O13" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="P13" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.781</v>
+        <v>0.78</v>
       </c>
       <c r="R13" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="S13" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T13" t="n">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="U13" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V13" t="n">
         <v>14.4</v>
@@ -2740,13 +2807,13 @@
         <v>21.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>94.09999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="AC13" t="n">
         <v>-7</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2758,13 +2825,13 @@
         <v>25</v>
       </c>
       <c r="AH13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK13" t="n">
         <v>29</v>
@@ -2797,7 +2864,7 @@
         <v>29</v>
       </c>
       <c r="AU13" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AV13" t="n">
         <v>12</v>
@@ -2806,13 +2873,13 @@
         <v>19</v>
       </c>
       <c r="AX13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY13" t="n">
         <v>14</v>
       </c>
       <c r="AZ13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA13" t="n">
         <v>10</v>
@@ -2821,7 +2888,7 @@
         <v>29</v>
       </c>
       <c r="BC13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-12-2007-08</t>
+          <t>2008-04-12</t>
         </is>
       </c>
     </row>
@@ -2934,13 +3001,13 @@
         <v>3</v>
       </c>
       <c r="AF14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI14" t="n">
         <v>5</v>
@@ -2955,13 +3022,13 @@
         <v>5</v>
       </c>
       <c r="AM14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN14" t="n">
         <v>7</v>
       </c>
       <c r="AO14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP14" t="n">
         <v>5</v>
@@ -2976,7 +3043,7 @@
         <v>1</v>
       </c>
       <c r="AT14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-12-2007-08</t>
+          <t>2008-04-12</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E15" t="n">
         <v>22</v>
       </c>
       <c r="F15" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G15" t="n">
-        <v>0.275</v>
+        <v>0.278</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
@@ -3050,10 +3117,10 @@
         <v>37.3</v>
       </c>
       <c r="J15" t="n">
-        <v>81.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="K15" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L15" t="n">
         <v>7.5</v>
@@ -3065,16 +3132,16 @@
         <v>0.352</v>
       </c>
       <c r="O15" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="P15" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.725</v>
+        <v>0.728</v>
       </c>
       <c r="R15" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S15" t="n">
         <v>31.2</v>
@@ -3086,10 +3153,10 @@
         <v>19</v>
       </c>
       <c r="V15" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W15" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="X15" t="n">
         <v>4.7</v>
@@ -3104,52 +3171,52 @@
         <v>22.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6</v>
+        <v>-5.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
       </c>
       <c r="AF15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG15" t="n">
         <v>27</v>
       </c>
       <c r="AH15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>14</v>
       </c>
-      <c r="AI15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>13</v>
-      </c>
       <c r="AK15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL15" t="n">
         <v>7</v>
       </c>
       <c r="AM15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR15" t="n">
         <v>22</v>
@@ -3158,7 +3225,7 @@
         <v>11</v>
       </c>
       <c r="AT15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU15" t="n">
         <v>29</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-12-2007-08</t>
+          <t>2008-04-12</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-8.800000000000001</v>
       </c>
       <c r="AD16" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3331,7 +3398,7 @@
         <v>23</v>
       </c>
       <c r="AQ16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR16" t="n">
         <v>29</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-12-2007-08</t>
+          <t>2008-04-12</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E17" t="n">
         <v>26</v>
       </c>
       <c r="F17" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G17" t="n">
-        <v>0.325</v>
+        <v>0.329</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
@@ -3414,49 +3481,49 @@
         <v>36.7</v>
       </c>
       <c r="J17" t="n">
-        <v>82.09999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="K17" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L17" t="n">
         <v>5.5</v>
       </c>
       <c r="M17" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.343</v>
+        <v>0.341</v>
       </c>
       <c r="O17" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="P17" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.733</v>
+        <v>0.735</v>
       </c>
       <c r="R17" t="n">
         <v>12.9</v>
       </c>
       <c r="S17" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="T17" t="n">
-        <v>41.6</v>
+        <v>41.7</v>
       </c>
       <c r="U17" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V17" t="n">
         <v>14.7</v>
       </c>
       <c r="W17" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="X17" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y17" t="n">
         <v>5</v>
@@ -3471,10 +3538,10 @@
         <v>96.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>-6.8</v>
+        <v>-6.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE17" t="n">
         <v>24</v>
@@ -3486,13 +3553,13 @@
         <v>24</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>17</v>
       </c>
       <c r="AJ17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK17" t="n">
         <v>21</v>
@@ -3504,19 +3571,19 @@
         <v>23</v>
       </c>
       <c r="AN17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO17" t="n">
         <v>22</v>
       </c>
       <c r="AP17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS17" t="n">
         <v>29</v>
@@ -3525,25 +3592,25 @@
         <v>17</v>
       </c>
       <c r="AU17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV17" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AW17" t="n">
         <v>21</v>
       </c>
       <c r="AX17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY17" t="n">
         <v>19</v>
       </c>
       <c r="AZ17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB17" t="n">
         <v>24</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-12-2007-08</t>
+          <t>2008-04-12</t>
         </is>
       </c>
     </row>
@@ -3578,25 +3645,25 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F18" t="n">
         <v>59</v>
       </c>
       <c r="G18" t="n">
-        <v>0.263</v>
+        <v>0.253</v>
       </c>
       <c r="H18" t="n">
         <v>48.1</v>
       </c>
       <c r="I18" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J18" t="n">
-        <v>82.90000000000001</v>
+        <v>82.7</v>
       </c>
       <c r="K18" t="n">
         <v>0.451</v>
@@ -3614,19 +3681,19 @@
         <v>15.2</v>
       </c>
       <c r="P18" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="Q18" t="n">
         <v>0.738</v>
       </c>
       <c r="R18" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S18" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T18" t="n">
-        <v>41.3</v>
+        <v>41.1</v>
       </c>
       <c r="U18" t="n">
         <v>19.8</v>
@@ -3638,7 +3705,7 @@
         <v>7.5</v>
       </c>
       <c r="X18" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Y18" t="n">
         <v>5.7</v>
@@ -3650,13 +3717,13 @@
         <v>17.4</v>
       </c>
       <c r="AB18" t="n">
-        <v>95.3</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>-6.9</v>
+        <v>-7.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE18" t="n">
         <v>28</v>
@@ -3671,13 +3738,13 @@
         <v>29</v>
       </c>
       <c r="AI18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ18" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AK18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL18" t="n">
         <v>25</v>
@@ -3704,7 +3771,7 @@
         <v>24</v>
       </c>
       <c r="AT18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AU18" t="n">
         <v>26</v>
@@ -3713,7 +3780,7 @@
         <v>18</v>
       </c>
       <c r="AW18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX18" t="n">
         <v>29</v>
@@ -3728,10 +3795,10 @@
         <v>30</v>
       </c>
       <c r="BB18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-12-2007-08</t>
+          <t>2008-04-12</t>
         </is>
       </c>
     </row>
@@ -3760,28 +3827,28 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E19" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F19" t="n">
         <v>47</v>
       </c>
       <c r="G19" t="n">
-        <v>0.413</v>
+        <v>0.405</v>
       </c>
       <c r="H19" t="n">
         <v>48.3</v>
       </c>
       <c r="I19" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="J19" t="n">
         <v>78.7</v>
       </c>
       <c r="K19" t="n">
-        <v>0.443</v>
+        <v>0.441</v>
       </c>
       <c r="L19" t="n">
         <v>6</v>
@@ -3790,28 +3857,28 @@
         <v>17.3</v>
       </c>
       <c r="N19" t="n">
-        <v>0.347</v>
+        <v>0.345</v>
       </c>
       <c r="O19" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="P19" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.735</v>
+        <v>0.733</v>
       </c>
       <c r="R19" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S19" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="T19" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U19" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="V19" t="n">
         <v>15</v>
@@ -3823,22 +3890,22 @@
         <v>4.8</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z19" t="n">
         <v>22.8</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AB19" t="n">
-        <v>95.59999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>-5.1</v>
+        <v>-5.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE19" t="n">
         <v>21</v>
@@ -3850,22 +3917,22 @@
         <v>21</v>
       </c>
       <c r="AH19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI19" t="n">
         <v>28</v>
       </c>
       <c r="AJ19" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK19" t="n">
         <v>26</v>
       </c>
-      <c r="AK19" t="n">
-        <v>25</v>
-      </c>
       <c r="AL19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM19" t="n">
         <v>18</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>17</v>
       </c>
       <c r="AN19" t="n">
         <v>24</v>
@@ -3874,10 +3941,10 @@
         <v>10</v>
       </c>
       <c r="AP19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR19" t="n">
         <v>15</v>
@@ -3886,7 +3953,7 @@
         <v>13</v>
       </c>
       <c r="AT19" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AU19" t="n">
         <v>6</v>
@@ -3895,13 +3962,13 @@
         <v>25</v>
       </c>
       <c r="AW19" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AX19" t="n">
         <v>16</v>
       </c>
       <c r="AY19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ19" t="n">
         <v>26</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-12-2007-08</t>
+          <t>2008-04-12</t>
         </is>
       </c>
     </row>
@@ -3942,43 +4009,43 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E20" t="n">
         <v>55</v>
       </c>
       <c r="F20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.696</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="J20" t="n">
-        <v>82.90000000000001</v>
+        <v>82.8</v>
       </c>
       <c r="K20" t="n">
-        <v>0.465</v>
+        <v>0.466</v>
       </c>
       <c r="L20" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M20" t="n">
         <v>19.8</v>
       </c>
       <c r="N20" t="n">
-        <v>0.39</v>
+        <v>0.392</v>
       </c>
       <c r="O20" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="P20" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="Q20" t="n">
         <v>0.767</v>
@@ -3990,19 +4057,19 @@
         <v>30.4</v>
       </c>
       <c r="T20" t="n">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="U20" t="n">
         <v>21.8</v>
       </c>
       <c r="V20" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="W20" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X20" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Y20" t="n">
         <v>4.1</v>
@@ -4011,16 +4078,16 @@
         <v>18.6</v>
       </c>
       <c r="AA20" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AB20" t="n">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE20" t="n">
         <v>3</v>
@@ -4032,16 +4099,16 @@
         <v>3</v>
       </c>
       <c r="AH20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI20" t="n">
         <v>6</v>
       </c>
       <c r="AJ20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK20" t="n">
         <v>8</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>9</v>
       </c>
       <c r="AL20" t="n">
         <v>6</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-12-2007-08</t>
+          <t>2008-04-12</t>
         </is>
       </c>
     </row>
@@ -4208,10 +4275,10 @@
         <v>25</v>
       </c>
       <c r="AF21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH21" t="n">
         <v>3</v>
@@ -4220,7 +4287,7 @@
         <v>22</v>
       </c>
       <c r="AJ21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK21" t="n">
         <v>27</v>
@@ -4238,7 +4305,7 @@
         <v>18</v>
       </c>
       <c r="AP21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ21" t="n">
         <v>25</v>
@@ -4247,7 +4314,7 @@
         <v>6</v>
       </c>
       <c r="AS21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT21" t="n">
         <v>10</v>
@@ -4259,7 +4326,7 @@
         <v>16</v>
       </c>
       <c r="AW21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4268,13 +4335,13 @@
         <v>25</v>
       </c>
       <c r="AZ21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA21" t="n">
         <v>20</v>
       </c>
       <c r="BB21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC21" t="n">
         <v>25</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-12-2007-08</t>
+          <t>2008-04-12</t>
         </is>
       </c>
     </row>
@@ -4384,13 +4451,13 @@
         <v>5</v>
       </c>
       <c r="AD22" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="AE22" t="n">
         <v>10</v>
       </c>
       <c r="AF22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG22" t="n">
         <v>10</v>
@@ -4399,7 +4466,7 @@
         <v>18</v>
       </c>
       <c r="AI22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ22" t="n">
         <v>27</v>
@@ -4420,7 +4487,7 @@
         <v>9</v>
       </c>
       <c r="AP22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ22" t="n">
         <v>27</v>
@@ -4429,10 +4496,10 @@
         <v>28</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU22" t="n">
         <v>22</v>
@@ -4447,7 +4514,7 @@
         <v>25</v>
       </c>
       <c r="AY22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ22" t="n">
         <v>14</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-12-2007-08</t>
+          <t>2008-04-12</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E23" t="n">
         <v>40</v>
       </c>
       <c r="F23" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5</v>
+        <v>0.506</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
@@ -4518,13 +4585,13 @@
         <v>11.5</v>
       </c>
       <c r="N23" t="n">
-        <v>0.315</v>
+        <v>0.313</v>
       </c>
       <c r="O23" t="n">
         <v>18.6</v>
       </c>
       <c r="P23" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="Q23" t="n">
         <v>0.707</v>
@@ -4536,7 +4603,7 @@
         <v>29</v>
       </c>
       <c r="T23" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U23" t="n">
         <v>20.4</v>
@@ -4554,7 +4621,7 @@
         <v>5</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AA23" t="n">
         <v>20.9</v>
@@ -4563,25 +4630,25 @@
         <v>96.59999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE23" t="n">
         <v>15</v>
       </c>
       <c r="AF23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH23" t="n">
         <v>22</v>
       </c>
       <c r="AI23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ23" t="n">
         <v>17</v>
@@ -4593,13 +4660,13 @@
         <v>30</v>
       </c>
       <c r="AM23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN23" t="n">
         <v>30</v>
       </c>
       <c r="AO23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP23" t="n">
         <v>10</v>
@@ -4620,13 +4687,13 @@
         <v>23</v>
       </c>
       <c r="AV23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW23" t="n">
         <v>4</v>
       </c>
       <c r="AX23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY23" t="n">
         <v>20</v>
@@ -4638,7 +4705,7 @@
         <v>18</v>
       </c>
       <c r="BB23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC23" t="n">
         <v>14</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-12-2007-08</t>
+          <t>2008-04-12</t>
         </is>
       </c>
     </row>
@@ -4760,13 +4827,13 @@
         <v>7</v>
       </c>
       <c r="AH24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI24" t="n">
         <v>1</v>
       </c>
       <c r="AJ24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK24" t="n">
         <v>1</v>
@@ -4796,7 +4863,7 @@
         <v>5</v>
       </c>
       <c r="AT24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU24" t="n">
         <v>1</v>
@@ -4817,7 +4884,7 @@
         <v>9</v>
       </c>
       <c r="BA24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB24" t="n">
         <v>3</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-12-2007-08</t>
+          <t>2008-04-12</t>
         </is>
       </c>
     </row>
@@ -4852,37 +4919,37 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E25" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25" t="n">
         <v>40</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5</v>
+        <v>0.494</v>
       </c>
       <c r="H25" t="n">
         <v>48.6</v>
       </c>
       <c r="I25" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="J25" t="n">
         <v>79.7</v>
       </c>
       <c r="K25" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L25" t="n">
         <v>6.5</v>
       </c>
       <c r="M25" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="N25" t="n">
-        <v>0.376</v>
+        <v>0.374</v>
       </c>
       <c r="O25" t="n">
         <v>17.3</v>
@@ -4894,52 +4961,52 @@
         <v>0.769</v>
       </c>
       <c r="R25" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S25" t="n">
         <v>29.7</v>
       </c>
       <c r="T25" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="U25" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="V25" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="W25" t="n">
         <v>5.5</v>
       </c>
       <c r="X25" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y25" t="n">
         <v>3.7</v>
       </c>
       <c r="Z25" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA25" t="n">
         <v>20.3</v>
       </c>
       <c r="AB25" t="n">
-        <v>95.2</v>
+        <v>95</v>
       </c>
       <c r="AC25" t="n">
         <v>-1.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH25" t="n">
         <v>1</v>
@@ -4948,16 +5015,16 @@
         <v>27</v>
       </c>
       <c r="AJ25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK25" t="n">
         <v>20</v>
       </c>
       <c r="AL25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN25" t="n">
         <v>8</v>
@@ -4969,7 +5036,7 @@
         <v>25</v>
       </c>
       <c r="AQ25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR25" t="n">
         <v>18</v>
@@ -4978,7 +5045,7 @@
         <v>22</v>
       </c>
       <c r="AT25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU25" t="n">
         <v>19</v>
@@ -4999,7 +5066,7 @@
         <v>8</v>
       </c>
       <c r="BA25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BB25" t="n">
         <v>28</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-12-2007-08</t>
+          <t>2008-04-12</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E26" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F26" t="n">
         <v>42</v>
       </c>
       <c r="G26" t="n">
-        <v>0.475</v>
+        <v>0.468</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
@@ -5058,31 +5125,31 @@
         <v>0.464</v>
       </c>
       <c r="L26" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="M26" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="N26" t="n">
-        <v>0.372</v>
+        <v>0.373</v>
       </c>
       <c r="O26" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="P26" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.797</v>
+        <v>0.799</v>
       </c>
       <c r="R26" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="S26" t="n">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="T26" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="U26" t="n">
         <v>19.1</v>
@@ -5097,22 +5164,22 @@
         <v>4.1</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AA26" t="n">
         <v>23.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2</v>
+        <v>-2.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5124,7 +5191,7 @@
         <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI26" t="n">
         <v>14</v>
@@ -5157,7 +5224,7 @@
         <v>23</v>
       </c>
       <c r="AS26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT26" t="n">
         <v>28</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-12-2007-08</t>
+          <t>2008-04-12</t>
         </is>
       </c>
     </row>
@@ -5294,13 +5361,13 @@
         <v>4.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="AE27" t="n">
         <v>5</v>
       </c>
       <c r="AF27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG27" t="n">
         <v>5</v>
@@ -5315,10 +5382,10 @@
         <v>28</v>
       </c>
       <c r="AK27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM27" t="n">
         <v>9</v>
@@ -5342,22 +5409,22 @@
         <v>9</v>
       </c>
       <c r="AT27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV27" t="n">
         <v>4</v>
       </c>
       <c r="AW27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX27" t="n">
         <v>24</v>
       </c>
       <c r="AY27" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ27" t="n">
         <v>2</v>
@@ -5366,7 +5433,7 @@
         <v>24</v>
       </c>
       <c r="BB27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC27" t="n">
         <v>9</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-12-2007-08</t>
+          <t>2008-04-12</t>
         </is>
       </c>
     </row>
@@ -5488,7 +5555,7 @@
         <v>29</v>
       </c>
       <c r="AH28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI28" t="n">
         <v>8</v>
@@ -5515,7 +5582,7 @@
         <v>24</v>
       </c>
       <c r="AQ28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR28" t="n">
         <v>11</v>
@@ -5527,7 +5594,7 @@
         <v>2</v>
       </c>
       <c r="AU28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV28" t="n">
         <v>30</v>
@@ -5536,7 +5603,7 @@
         <v>23</v>
       </c>
       <c r="AX28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY28" t="n">
         <v>26</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-12-2007-08</t>
+          <t>2008-04-12</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>3</v>
       </c>
       <c r="AD29" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="AE29" t="n">
         <v>15</v>
@@ -5718,7 +5785,7 @@
         <v>20</v>
       </c>
       <c r="AX29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY29" t="n">
         <v>5</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-12-2007-08</t>
+          <t>2008-04-12</t>
         </is>
       </c>
     </row>
@@ -5762,28 +5829,28 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E30" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F30" t="n">
         <v>27</v>
       </c>
       <c r="G30" t="n">
-        <v>0.663</v>
+        <v>0.658</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
       </c>
       <c r="I30" t="n">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="J30" t="n">
-        <v>80.40000000000001</v>
+        <v>80.3</v>
       </c>
       <c r="K30" t="n">
-        <v>0.499</v>
+        <v>0.498</v>
       </c>
       <c r="L30" t="n">
         <v>5</v>
@@ -5792,13 +5859,13 @@
         <v>13.3</v>
       </c>
       <c r="N30" t="n">
-        <v>0.377</v>
+        <v>0.379</v>
       </c>
       <c r="O30" t="n">
         <v>21.3</v>
       </c>
       <c r="P30" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="Q30" t="n">
         <v>0.759</v>
@@ -5807,13 +5874,13 @@
         <v>11.5</v>
       </c>
       <c r="S30" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T30" t="n">
         <v>40.8</v>
       </c>
       <c r="U30" t="n">
-        <v>26.6</v>
+        <v>26.4</v>
       </c>
       <c r="V30" t="n">
         <v>14.7</v>
@@ -5822,7 +5889,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="X30" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y30" t="n">
         <v>5.2</v>
@@ -5834,22 +5901,22 @@
         <v>23.1</v>
       </c>
       <c r="AB30" t="n">
-        <v>106.6</v>
+        <v>106.3</v>
       </c>
       <c r="AC30" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF30" t="n">
         <v>7</v>
       </c>
       <c r="AG30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH30" t="n">
         <v>29</v>
@@ -5870,13 +5937,13 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ30" t="n">
         <v>16</v>
@@ -5888,13 +5955,13 @@
         <v>26</v>
       </c>
       <c r="AT30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU30" t="n">
         <v>2</v>
       </c>
       <c r="AV30" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AW30" t="n">
         <v>3</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-12-2007-08</t>
+          <t>2008-04-12</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E31" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F31" t="n">
         <v>38</v>
       </c>
       <c r="G31" t="n">
-        <v>0.525</v>
+        <v>0.519</v>
       </c>
       <c r="H31" t="n">
         <v>48.6</v>
@@ -5962,19 +6029,19 @@
         <v>36.3</v>
       </c>
       <c r="J31" t="n">
-        <v>81.59999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="K31" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L31" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M31" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="N31" t="n">
-        <v>0.355</v>
+        <v>0.352</v>
       </c>
       <c r="O31" t="n">
         <v>19.2</v>
@@ -5983,19 +6050,19 @@
         <v>24.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.786</v>
+        <v>0.787</v>
       </c>
       <c r="R31" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S31" t="n">
         <v>29.2</v>
       </c>
       <c r="T31" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U31" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="V31" t="n">
         <v>13.2</v>
@@ -6004,10 +6071,10 @@
         <v>7.8</v>
       </c>
       <c r="X31" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z31" t="n">
         <v>19.6</v>
@@ -6016,13 +6083,13 @@
         <v>20.3</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6046,13 +6113,13 @@
         <v>22</v>
       </c>
       <c r="AL31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM31" t="n">
         <v>10</v>
       </c>
       <c r="AN31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO31" t="n">
         <v>11</v>
@@ -6064,7 +6131,7 @@
         <v>4</v>
       </c>
       <c r="AR31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS31" t="n">
         <v>27</v>
@@ -6082,22 +6149,22 @@
         <v>8</v>
       </c>
       <c r="AX31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ31" t="n">
         <v>6</v>
       </c>
       <c r="BA31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB31" t="n">
         <v>14</v>
       </c>
       <c r="BC31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-12-2007-08</t>
+          <t>2008-04-12</t>
         </is>
       </c>
     </row>
